--- a/CSP/data/test_system_management.xlsx
+++ b/CSP/data/test_system_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="账号管理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>序号</t>
   </si>
@@ -63,7 +63,7 @@
     <t>003</t>
   </si>
   <si>
-    <t>输入用户名</t>
+    <t>输入用户名查询</t>
   </si>
   <si>
     <t>input_value</t>
@@ -78,7 +78,7 @@
     <t>004</t>
   </si>
   <si>
-    <t>输入用户姓名</t>
+    <t>输入用户姓名查询</t>
   </si>
   <si>
     <t>realname</t>
@@ -87,7 +87,7 @@
     <t>005</t>
   </si>
   <si>
-    <t>输入手机号</t>
+    <t>输入手机号查询</t>
   </si>
   <si>
     <t>mobile</t>
@@ -96,156 +96,159 @@
     <t>006</t>
   </si>
   <si>
+    <t>选择所属角色查询</t>
+  </si>
+  <si>
+    <t>handle_select</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>选择角色状态查询</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>点击查询按钮</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>findAdminButton</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>点击编辑按钮</t>
+  </si>
+  <si>
+    <t>link_text</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>变更用户名</t>
+  </si>
+  <si>
+    <t>//*[@id="username"]</t>
+  </si>
+  <si>
+    <t>updatename</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>点击确认变更按钮</t>
+  </si>
+  <si>
+    <t>//*[@id="editAdminForm"]/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>点击删除按钮</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>点击停用按钮</t>
+  </si>
+  <si>
+    <t>停用</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>点击新增账号按钮</t>
+  </si>
+  <si>
+    <t>toadd</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>输入新增的用户名</t>
+  </si>
+  <si>
+    <t>testuser01</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>输入新增的用户姓名</t>
+  </si>
+  <si>
+    <t>//*[@id="realname"]</t>
+  </si>
+  <si>
+    <t>张无忌</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>输入新增的身份证号</t>
+  </si>
+  <si>
+    <t>//*[@id="identityCard"]</t>
+  </si>
+  <si>
+    <t>320804199701025118</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>点击上传身份证正面</t>
+  </si>
+  <si>
+    <t>upload_file</t>
+  </si>
+  <si>
+    <t>//*[@id="front_img"]</t>
+  </si>
+  <si>
+    <t>E:\test\test_first</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>点击上传身份证反面</t>
+  </si>
+  <si>
+    <t>//*[@id="reverse_img"]</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
     <t>选择所属角色</t>
   </si>
   <si>
-    <t>handle_select</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>选择角色状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>点击查询按钮</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>findAdminButton</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>点击编辑按钮</t>
-  </si>
-  <si>
-    <t>link_text</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>变更用户名</t>
-  </si>
-  <si>
-    <t>//*[@id="username"]</t>
-  </si>
-  <si>
-    <t>无忌</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>点击确认变更按钮</t>
-  </si>
-  <si>
-    <t>//*[@id="editAdminForm"]/div[2]/button[2]</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>点击删除按钮</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>点击停用按钮</t>
-  </si>
-  <si>
-    <t>停用</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>点击新增账号按钮</t>
-  </si>
-  <si>
-    <t>toadd</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>输入新增的用户名</t>
-  </si>
-  <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>输入新增的用户姓名</t>
-  </si>
-  <si>
-    <t>//*[@id="realname"]</t>
-  </si>
-  <si>
-    <t>张无忌</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>输入新增的身份证号</t>
-  </si>
-  <si>
-    <t>//*[@id="identityCard"]</t>
-  </si>
-  <si>
-    <t>320804199701025118</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>点击上传身份证正面</t>
-  </si>
-  <si>
-    <t>upload_file</t>
-  </si>
-  <si>
-    <t>//*[@id="front_img"]</t>
-  </si>
-  <si>
-    <t>E:\test\test_first</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>点击上传身份证反面</t>
-  </si>
-  <si>
-    <t>//*[@id="reverse_img"]</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
     <t>//*[@id="roleId"]</t>
   </si>
   <si>
@@ -297,7 +300,7 @@
     <t>//*[@id="password"]</t>
   </si>
   <si>
-    <t>@#Wuji</t>
+    <t>@#Wuji121121</t>
   </si>
   <si>
     <t>025</t>
@@ -437,15 +440,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -459,9 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,37 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,45 +522,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,6 +545,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +583,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -604,55 +607,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,115 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,6 +812,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,40 +894,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -890,26 +913,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -918,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,133 +933,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1793,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1802,18 +1805,18 @@
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1822,18 +1825,18 @@
         <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
@@ -1842,18 +1845,18 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
@@ -1862,18 +1865,18 @@
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -1882,18 +1885,18 @@
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1902,13 +1905,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1965,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1974,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -1983,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1992,7 +1995,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2010,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -2037,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -2046,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2066,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2093,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -2102,7 +2105,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -2111,7 +2114,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -2120,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2131,7 +2134,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -2140,7 +2143,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -2149,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -2158,10 +2161,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2169,7 +2172,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
@@ -2178,10 +2181,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2266,7 +2269,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2325,7 +2328,7 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2363,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2372,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2381,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2390,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2399,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -2408,10 +2411,10 @@
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2419,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -2428,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -2437,7 +2440,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -2446,7 +2449,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -2464,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2482,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -2491,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -2500,10 +2503,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2520,7 +2523,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -2538,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/CSP/data/test_system_management.xlsx
+++ b/CSP/data/test_system_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420"/>
+    <workbookView windowWidth="22488" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="账号管理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -366,7 +366,7 @@
     <t>//*[@id="dataForm"]/div[1]/div/input</t>
   </si>
   <si>
-    <t>系统管理员</t>
+    <t>测试人员</t>
   </si>
   <si>
     <t>输入新增角色权限描述</t>
@@ -375,7 +375,19 @@
     <t>//*[@id="dataForm"]/div[2]/textarea</t>
   </si>
   <si>
-    <t>由系统管理的全部权限</t>
+    <t>系统管理的全部权限</t>
+  </si>
+  <si>
+    <t>点击系统管理权限</t>
+  </si>
+  <si>
+    <t>//*[@id="menuHtml"]/tr[24]/td/input</t>
+  </si>
+  <si>
+    <t>点击确认删除角色按钮</t>
+  </si>
+  <si>
+    <t>确定</t>
   </si>
   <si>
     <t>点击敏感词库管理</t>
@@ -440,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -455,7 +467,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,8 +488,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -485,27 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -514,34 +526,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,9 +550,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +566,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,8 +588,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +602,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -607,13 +619,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,169 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,16 +838,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,31 +862,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,6 +902,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -921,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,133 +945,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,7 +1415,7 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1943,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2191,20 +2203,36 @@
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
@@ -2328,8 +2356,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2366,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2375,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2384,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2393,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2402,7 +2430,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -2411,10 +2439,10 @@
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2431,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -2440,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -2449,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -2467,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2485,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -2494,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -2503,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2523,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -2541,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -2707,7 +2735,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2717,7 +2745,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
